--- a/pred_ohlcv/54_21/2020-01-25 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BCH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-39.39647041999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-26.39647041999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-24.99647041999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-21.03137041999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-21.00137041999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-81.04324528999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-81.07324528999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-60.79973503999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-60.81973503999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-141.28273504</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-146.18273504</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-146.18273504</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-144.56763504</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-147.76763504</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-147.76523504</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-153.36523504</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-144.96523504</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-214.15523504</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-411.95783504</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-710.78453504</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-730.72393504</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-750.9271350400001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1105.56663504</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-631.00311861</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-578.42351861</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-603.76351861</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-577.52351861</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-580.5586186099999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-598.3575186099999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-615.25641861</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-628.58421861</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-648.39921861</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-648.44871861</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-683.18331861</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-691.18331861</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-692.43281861</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-865.45451902</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-794.9815190200001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-795.3899190200001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-803.7028190200001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-985.6129190200002</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1211.98811902</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-6074.878632889995</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-6097.757432889995</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-6069.388032889996</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-5999.473832889996</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-6236.112243149993</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-6236.108743149994</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-6240.509043149994</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-6301.547443149994</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-6209.282543149994</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-6335.101743149994</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-6232.698643149994</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-6319.005043149995</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-6161.705643149995</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-6181.838943149995</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-6200.227443149993</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-6228.557943149993</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-6228.557943149993</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-6250.157943149993</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-6169.578743149993</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-6132.610143149993</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-4909.329458439993</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-4979.939658439993</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-4262.449998529993</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-4443.067218099993</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-4143.943789089993</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-4030.862368199992</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-4211.160368199992</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-4375.530068199992</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-4486.157368199993</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-4638.634268199992</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-4464.287968199992</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-4487.498468199992</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BCH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-39.39647041999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-26.39647041999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-24.99647041999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-21.03137041999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-21.00137041999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-81.04324528999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-81.07324528999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-60.79973503999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-60.81973503999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-141.28273504</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-146.18273504</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-146.18273504</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-144.56763504</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-147.76763504</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-147.76523504</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-153.36523504</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-144.96523504</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-214.15523504</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-411.95783504</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-710.78453504</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-730.72393504</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-750.9271350400001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-994.5959350400001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1105.56663504</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-967.3071350400002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-940.1296350400002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-900.0212350400002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-900.0212350400002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-920.6961350400002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-915.0705350400002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-880.2658350400002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-858.2699350400002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-859.9692350400002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-862.4903350400002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-863.4903350400002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-906.5851350400002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-851.2706350400002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-851.6654350400003</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-861.9504350400002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-851.8893350400002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-851.8893350400002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-854.2550350400002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-851.8204710300001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-852.7598710300001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-858.6293096900001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-865.0633186100001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-865.0633186100001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-914.6994186100001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-934.9893186100001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-961.09591861</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-925.90071861</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-739.90701861</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-631.00311861</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-578.42351861</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-578.42351861</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-603.76351861</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-577.52351861</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-580.5586186099999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-598.3575186099999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-615.25641861</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-627.85501861</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-628.58421861</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-648.39921861</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-648.44871861</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-686.18331861</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-683.18331861</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-691.18331861</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-692.18331861</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-692.43281861</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-708.43281861</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-765.9711186100001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-769.9077190200001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-814.36661902</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-892.35121902</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-865.45451902</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-794.9815190200001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-795.3899190200001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-803.7028190200001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-985.6129190200002</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1211.98811902</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1210.11291902</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1791.4047747</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1783.4047747</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1774.7659747</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1772.7559747</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1772.7559747</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1764.88165333</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1764.88715333</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1798.13435333</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1803.35805333</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1803.74895943</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1803.41415943</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1806.19155943</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2102.326484889999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-2100.49608511</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-2190.25178511</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-6074.878632889995</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-6097.757432889995</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-6301.547443149994</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-6209.282543149994</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-6239.801543149994</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-6161.705643149995</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-6181.838943149995</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-6182.838943149995</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-6189.831643149995</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-6250.157943149993</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-6169.578743149993</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-6132.610143149993</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-4909.329458439993</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-4979.939658439993</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-4262.449998529993</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-4443.067218099993</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-4143.943789089993</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-4030.862368199992</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-4211.160368199992</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-4375.530068199992</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-4486.157368199993</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-4638.634268199992</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-4464.287968199992</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-4487.498468199992</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
